--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value456.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value456.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.328444693178537</v>
+        <v>0.9171980023384094</v>
       </c>
       <c r="B1">
-        <v>1.87212441749428</v>
+        <v>1.586216807365417</v>
       </c>
       <c r="C1">
-        <v>3.403355702483996</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.637118469153604</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.3617524608982557</v>
+        <v>1.449743032455444</v>
       </c>
     </row>
   </sheetData>
